--- a/firstt/data/input.xlsx
+++ b/firstt/data/input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8355"/>
+    <workbookView windowWidth="19890" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>user name</t>
   </si>
@@ -26,6 +27,69 @@
   </si>
   <si>
     <t>Singh</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
 </sst>
 </file>
@@ -54,16 +118,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,17 +149,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,45 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -170,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -200,6 +264,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -212,43 +408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,127 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,39 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,11 +475,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,21 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -494,7 +558,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,135 +576,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,7 +1027,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -988,4 +1053,90 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>